--- a/extraTask/result/总量前十每天收益.xlsx
+++ b/extraTask/result/总量前十每天收益.xlsx
@@ -5,17 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16250\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16250\Desktop\ETHData_Analysis\extraTask\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C177D77-CC19-4163-8BB8-04FA83244E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106EEEB7-42FF-42DD-83B9-BE3FB9D538AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11604" yWindow="1560" windowWidth="23040" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$71</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="15">
   <si>
     <t>to_address</t>
   </si>
@@ -127,11 +130,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -412,10 +416,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E70"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -444,7 +449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -461,7 +466,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -478,7 +483,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -495,7 +500,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -517,19 +522,19 @@
         <v>7</v>
       </c>
       <c r="B6" s="2">
-        <v>44456</v>
+        <v>44454</v>
       </c>
       <c r="C6" s="3">
-        <v>2.13E+18</v>
+        <v>1.38E+18</v>
       </c>
       <c r="D6" s="3">
-        <v>1.3E+19</v>
+        <v>1.11E+19</v>
       </c>
       <c r="E6" s="1">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -546,7 +551,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -568,16 +573,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>44459</v>
+        <v>44455</v>
       </c>
       <c r="C9" s="3">
-        <v>1.88E+18</v>
+        <v>1E+18</v>
       </c>
       <c r="D9" s="3">
-        <v>1.1E+19</v>
+        <v>6.16E+18</v>
       </c>
       <c r="E9" s="1">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -585,19 +590,19 @@
         <v>7</v>
       </c>
       <c r="B10" s="2">
-        <v>44458</v>
+        <v>44456</v>
       </c>
       <c r="C10" s="3">
-        <v>1.6E+18</v>
+        <v>2.13E+18</v>
       </c>
       <c r="D10" s="3">
-        <v>1.23E+19</v>
+        <v>1.3E+19</v>
       </c>
       <c r="E10" s="1">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -619,19 +624,19 @@
         <v>7</v>
       </c>
       <c r="B12" s="2">
-        <v>44454</v>
+        <v>44457</v>
       </c>
       <c r="C12" s="3">
-        <v>1.38E+18</v>
+        <v>6.13E+17</v>
       </c>
       <c r="D12" s="3">
-        <v>1.11E+19</v>
+        <v>5.78E+18</v>
       </c>
       <c r="E12" s="1">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -648,7 +653,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -665,7 +670,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -682,7 +687,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -699,7 +704,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
@@ -716,7 +721,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
@@ -733,7 +738,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
@@ -755,16 +760,16 @@
         <v>7</v>
       </c>
       <c r="B20" s="2">
-        <v>44455</v>
+        <v>44458</v>
       </c>
       <c r="C20" s="3">
-        <v>1E+18</v>
+        <v>1.6E+18</v>
       </c>
       <c r="D20" s="3">
-        <v>6.16E+18</v>
+        <v>1.23E+19</v>
       </c>
       <c r="E20" s="1">
-        <v>164</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -772,19 +777,19 @@
         <v>7</v>
       </c>
       <c r="B21" s="2">
-        <v>44460</v>
+        <v>44459</v>
       </c>
       <c r="C21" s="3">
-        <v>8.93E+17</v>
+        <v>1.88E+18</v>
       </c>
       <c r="D21" s="3">
-        <v>5.68E+18</v>
+        <v>1.1E+19</v>
       </c>
       <c r="E21" s="1">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -801,7 +806,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
@@ -818,7 +823,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
@@ -835,7 +840,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
@@ -852,7 +857,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
@@ -874,19 +879,19 @@
         <v>7</v>
       </c>
       <c r="B27" s="2">
-        <v>44457</v>
+        <v>44460</v>
       </c>
       <c r="C27" s="3">
-        <v>6.13E+17</v>
+        <v>8.93E+17</v>
       </c>
       <c r="D27" s="3">
-        <v>5.78E+18</v>
+        <v>5.68E+18</v>
       </c>
       <c r="E27" s="1">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>9</v>
       </c>
@@ -903,7 +908,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
@@ -920,7 +925,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>12</v>
       </c>
@@ -937,7 +942,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>10</v>
       </c>
@@ -954,7 +959,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>13</v>
       </c>
@@ -971,7 +976,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -988,7 +993,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>10</v>
       </c>
@@ -1005,7 +1010,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>11</v>
       </c>
@@ -1022,7 +1027,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>11</v>
       </c>
@@ -1039,7 +1044,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
@@ -1056,7 +1061,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
@@ -1073,7 +1078,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>9</v>
       </c>
@@ -1090,7 +1095,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>11</v>
       </c>
@@ -1107,7 +1112,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>13</v>
       </c>
@@ -1124,7 +1129,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>11</v>
       </c>
@@ -1141,7 +1146,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>14</v>
       </c>
@@ -1158,7 +1163,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>10</v>
       </c>
@@ -1175,7 +1180,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>14</v>
       </c>
@@ -1192,7 +1197,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>12</v>
       </c>
@@ -1209,7 +1214,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>8</v>
       </c>
@@ -1226,7 +1231,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>8</v>
       </c>
@@ -1243,7 +1248,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>12</v>
       </c>
@@ -1260,7 +1265,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>13</v>
       </c>
@@ -1277,7 +1282,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>11</v>
       </c>
@@ -1294,7 +1299,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>13</v>
       </c>
@@ -1311,7 +1316,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>12</v>
       </c>
@@ -1328,7 +1333,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>10</v>
       </c>
@@ -1345,7 +1350,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>9</v>
       </c>
@@ -1362,7 +1367,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>14</v>
       </c>
@@ -1379,7 +1384,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>9</v>
       </c>
@@ -1396,7 +1401,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>12</v>
       </c>
@@ -1413,7 +1418,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>12</v>
       </c>
@@ -1430,7 +1435,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>12</v>
       </c>
@@ -1447,7 +1452,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>14</v>
       </c>
@@ -1464,7 +1469,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>13</v>
       </c>
@@ -1481,7 +1486,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>14</v>
       </c>
@@ -1498,7 +1503,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>11</v>
       </c>
@@ -1515,7 +1520,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>13</v>
       </c>
@@ -1532,7 +1537,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,7 +1554,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>9</v>
       </c>
@@ -1566,7 +1571,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,7 +1588,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>13</v>
       </c>
@@ -1600,24 +1605,54 @@
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" s="2">
+        <v>44460</v>
+      </c>
+      <c r="C70" s="3">
+        <v>3.77E+16</v>
+      </c>
+      <c r="D70" s="3">
+        <v>5.17E+17</v>
+      </c>
+      <c r="E70" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B71" s="2">
         <v>44458</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C71" s="3">
         <v>-5.25E+18</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D71" s="3">
         <v>-4.31E+18</v>
       </c>
-      <c r="E70" s="1">
+      <c r="E71" s="1">
         <v>47</v>
       </c>
     </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C74" s="4"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:E71" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="0x0000000000007F150Bd6f54c40A34d7C3d5e9f56"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:E27">
+      <sortCondition ref="B1:B71"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
